--- a/data/trans_dic/P32E$calle_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Dificultad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -870,7 +870,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$calle_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2484280430948042</v>
+        <v>0.2484280430948041</v>
       </c>
     </row>
     <row r="5">
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.147429490683629</v>
+        <v>0.1381781888392368</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.1266542600221616</v>
+        <v>0.1331104935667116</v>
       </c>
     </row>
     <row r="6">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4478182173660178</v>
+        <v>0.4587643116422165</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.4081295238830168</v>
+        <v>0.4108325585627746</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.1672427819664253</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07660621195493852</v>
+        <v>0.07660621195493854</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1451398867259952</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04492905550142919</v>
+        <v>0.06067576737301877</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04590604520441537</v>
+        <v>0.04918455830656214</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3636130793974187</v>
+        <v>0.3622911697223772</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3268218645114843</v>
+        <v>0.3497394318699424</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3026058958034936</v>
+        <v>0.2970479768061162</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>0.2403990456490062</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1473203124919676</v>
+        <v>0.1473203124919675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2056918432208946</v>
+        <v>0.2056918432208945</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08256299956003092</v>
+        <v>0.08271981285683061</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08334110607626097</v>
+        <v>0.0876327973492865</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.45435861798104</v>
+        <v>0.4784436667258491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4367043370811718</v>
+        <v>0.4811409480397753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3653530336348259</v>
+        <v>0.360715385395894</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>0.06770957962110102</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2367522956836285</v>
+        <v>0.2367522956836284</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.124807017593984</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0197072508368052</v>
+        <v>0.0185346005053688</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0968958195888954</v>
+        <v>0.09476558704687216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05742723088189052</v>
+        <v>0.05645785394026578</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1775578055480285</v>
+        <v>0.1775978509637235</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4980367170777555</v>
+        <v>0.4658437183438274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.24211315240297</v>
+        <v>0.2367234718146454</v>
       </c>
     </row>
     <row r="16">
@@ -783,10 +783,10 @@
         <v>0.1744712219838913</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1607405334475278</v>
+        <v>0.1607405334475279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1706278648358418</v>
+        <v>0.1706278648358419</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.116383155171635</v>
+        <v>0.1117042471662311</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08051583866789841</v>
+        <v>0.07581578754079152</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1151849037799738</v>
+        <v>0.1180274094447609</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2585276312996014</v>
+        <v>0.2529928141080319</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2929820182409479</v>
+        <v>0.2977225159655792</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2303257212301962</v>
+        <v>0.2320605660575952</v>
       </c>
     </row>
     <row r="19">
@@ -962,11 +962,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5575</v>
+        <v>5225</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>5367</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="7">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16934</v>
+        <v>17348</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>17294</v>
+        <v>17409</v>
       </c>
     </row>
     <row r="8">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1789</v>
+        <v>2416</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2417</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="11">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14477</v>
+        <v>14424</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4196</v>
+        <v>4491</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15933</v>
+        <v>15641</v>
       </c>
     </row>
     <row r="12">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2539</v>
+        <v>2544</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4087</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13973</v>
+        <v>14714</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7986</v>
+        <v>8798</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17917</v>
+        <v>17689</v>
       </c>
     </row>
     <row r="16">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1046</v>
+        <v>984</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2624</v>
+        <v>2567</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4605</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9428</v>
+        <v>9431</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13489</v>
+        <v>12617</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19414</v>
+        <v>18982</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18794</v>
+        <v>18038</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5054</v>
+        <v>4759</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25831</v>
+        <v>26468</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41748</v>
+        <v>40854</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18391</v>
+        <v>18688</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51651</v>
+        <v>52040</v>
       </c>
     </row>
     <row r="24">
